--- a/biology/Mycologie/Fistulinella/Fistulinella.xlsx
+++ b/biology/Mycologie/Fistulinella/Fistulinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fistulinella, la fistulinelle, est un genre de champignons de la famille des Boletaceae dans la division des basidiomycètes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fructification de la fistulinella  (sporophore) est formée d'un chapeau et d'un pied. L'aspect du chapeau est sec ou viscidule, glabre, fibrilleux ou tomenteux, souvent scrobiculé. La chair est blanche et immuable. Sa texture est douce. Le stipe peut être sec ou visqueux, glabre ou pruineux. Il est fin, typiquement fusiforme. La sporée est rose brunâtre. Les spores sont lisses et fusiformes et se forment dans des pores situés sous le chapeau (comme pour la majorité des Boletacés).
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans l'est de l'Amérique du Nord, au Mexique, aux Caraïbes, au Brésil, en Afrique, en Australie, en Nouvelle-Zélande, au Japon ainsi qu'en Indonésie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans l'est de l'Amérique du Nord, au Mexique, aux Caraïbes, au Brésil, en Afrique, en Australie, en Nouvelle-Zélande, au Japon ainsi qu'en Indonésie.
 Des mycorhizes sont possibles entre certaines sortes d'espèces des familles des Fagaceae, Nothofagaceae, Légumineuses, Sapotaceae, Myrtacées⁣ ; douteusement présentes dans d'autres.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2013) :
 Fistulinella alfaroae
 Fistulinella campinaranae
 Fistulinella cinereoalba
@@ -597,7 +615,7 @@
 Fistulinella violaceipora
 Fistulinella viscida
 Fistulinella wolfeana
-Selon Index Fungorum                                      (2 novembre 2013)[3] :
+Selon Index Fungorum                                      (2 novembre 2013) :
 Fistulinella alfaroae Singer &amp; L.D. Gómez 1991
 Fistulinella campinaranae Singer 1978
 Fistulinella cinereoalba Fulgenzi &amp; T.W. Henkel 2010
@@ -620,7 +638,7 @@
 Fistulinella violaceipora (G. Stev.) Pegler &amp; T.W.K. Young 1981
 Fistulinella viscida (McNabb) Singer 1978
 Fistulinella wolfeana Singer &amp; J. García 1991
-Selon NCBI  (2 novembre 2013)[4] :
+Selon NCBI  (2 novembre 2013) :
 Fistulinella cinereoalba
 Fistulinella gloeocarpa
 Fistulinella prunicolor
